--- a/data/ret_sur_21.xlsx
+++ b/data/ret_sur_21.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EHPEI\Documents\ret_21\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\ret_21\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D957538D-55EA-4014-8608-9F1B46E6E8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="751" firstSheet="8" activeTab="17" xr2:uid="{03EF9D5D-2FCA-4549-AD03-19ECFF4C5F4E}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="751" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="bce_CL" sheetId="1" r:id="rId1"/>
-    <sheet name="bce_CI" sheetId="2" r:id="rId2"/>
-    <sheet name="buck_CL" sheetId="3" r:id="rId3"/>
-    <sheet name="buck_CIL" sheetId="6" r:id="rId4"/>
-    <sheet name="buck_CIC" sheetId="5" r:id="rId5"/>
-    <sheet name="buck_CI" sheetId="4" r:id="rId6"/>
-    <sheet name="chem_CL" sheetId="7" r:id="rId7"/>
-    <sheet name="chem_CIL" sheetId="9" r:id="rId8"/>
-    <sheet name="chem_CIC" sheetId="10" r:id="rId9"/>
-    <sheet name="chem_CC" sheetId="11" r:id="rId10"/>
-    <sheet name="perga_CL" sheetId="12" r:id="rId11"/>
-    <sheet name="perga_CIC" sheetId="13" r:id="rId12"/>
-    <sheet name="agrar_CL" sheetId="14" r:id="rId13"/>
-    <sheet name="agrar_CIL" sheetId="15" r:id="rId14"/>
+    <sheet name="bce_L" sheetId="1" r:id="rId1"/>
+    <sheet name="bce_I" sheetId="2" r:id="rId2"/>
+    <sheet name="buck_L" sheetId="3" r:id="rId3"/>
+    <sheet name="buck_IL" sheetId="6" r:id="rId4"/>
+    <sheet name="buck_IC" sheetId="5" r:id="rId5"/>
+    <sheet name="buck_I" sheetId="4" r:id="rId6"/>
+    <sheet name="chem_L" sheetId="7" r:id="rId7"/>
+    <sheet name="chem_IL" sheetId="9" r:id="rId8"/>
+    <sheet name="chem_IC" sheetId="10" r:id="rId9"/>
+    <sheet name="chem_C" sheetId="11" r:id="rId10"/>
+    <sheet name="perga_L" sheetId="12" r:id="rId11"/>
+    <sheet name="perga_IC" sheetId="13" r:id="rId12"/>
+    <sheet name="agrar_L" sheetId="14" r:id="rId13"/>
+    <sheet name="agrar_IL" sheetId="15" r:id="rId14"/>
     <sheet name="agrar_CIC" sheetId="16" r:id="rId15"/>
     <sheet name="agrar_CC" sheetId="17" r:id="rId16"/>
     <sheet name="barrow_CL" sheetId="18" r:id="rId17"/>
@@ -41,7 +40,7 @@
     <definedName name="CV3SF">[1]Fechas!$C$116:$I$165</definedName>
     <definedName name="CV4SF">[1]Fechas!$C$171:$I$220</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -815,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
@@ -1063,16 +1062,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{4C92592E-1402-4AC3-A699-0B48E26CED45}"/>
-    <cellStyle name="Hipervínculo 2" xfId="6" xr:uid="{55409A2F-96BD-485A-9BC3-BD656F94744F}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Hipervínculo 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 2" xfId="8" xr:uid="{F055592A-4A38-4008-890E-F812FEAD7AD3}"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{437565B3-D0A1-45D3-9524-060208AE2729}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AC4940F0-BA0D-4ABF-A2EA-C5E33B9A656A}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{8DD3B38C-EB7E-4ED3-9B19-5E1F10805EF7}"/>
-    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{F09CFB58-090C-48BF-A18E-44B6239C8A8A}"/>
-    <cellStyle name="Porcentaje 2" xfId="3" xr:uid="{DB20C45A-6626-4564-98EF-CBCC813AC7AA}"/>
-    <cellStyle name="Porcentaje 3" xfId="5" xr:uid="{B6A8DF66-3C3F-45E1-89D0-EDFF3B4F147B}"/>
+    <cellStyle name="Normal 11 2" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="7"/>
+    <cellStyle name="Normal 4 2" xfId="9"/>
+    <cellStyle name="Porcentaje 2" xfId="3"/>
+    <cellStyle name="Porcentaje 3" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5175,20 +5174,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65B799F-B550-441C-B615-74A2DE746652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="1" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -5407,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -5597,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -5635,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>46</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>49</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>51</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>54</v>
       </c>
@@ -5816,19 +5815,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E78E5B9-4299-498C-A41F-D892AC152032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
@@ -5877,7 +5876,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -5960,7 +5959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -6020,7 +6019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -6080,7 +6079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -6100,7 +6099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -6120,7 +6119,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>103</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -6323,7 +6322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -6343,7 +6342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -6443,7 +6442,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>178</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>100</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>18</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -6736,29 +6735,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39738B1C-FA65-4698-80AA-B97CE947E752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.90625" style="5"/>
+    <col min="4" max="4" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6787,7 +6786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>179</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>365</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>362</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -6916,7 +6915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>167</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>180</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>168</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -6977,7 +6976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>94</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>181</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>182</v>
       </c>
@@ -7032,7 +7031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>169</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>184</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>185</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>186</v>
       </c>
@@ -7184,7 +7183,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>188</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>189</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>190</v>
       </c>
@@ -7224,27 +7223,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5AECF0-125B-4D57-8B96-C5B5FEBEA4D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="5"/>
+    <col min="10" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
@@ -7303,7 +7302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>191</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>192</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>193</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>603</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>915</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>916</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>920</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>460</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>97</v>
       </c>
@@ -7434,7 +7433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>99</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>194</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
@@ -7480,7 +7479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -7491,7 +7490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>195</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
@@ -7530,7 +7529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -7541,7 +7540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>103</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>196</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>197</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>198</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>199</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>200</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>201</v>
       </c>
@@ -7658,21 +7657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8893EF58-83C5-4688-82C8-20BB8AE01F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.90625" style="5"/>
-    <col min="9" max="9" width="14.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="8" width="10.85546875" style="5"/>
+    <col min="9" max="9" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>365</v>
       </c>
@@ -7709,17 +7708,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>167</v>
       </c>
@@ -7768,17 +7767,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>203</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>204</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>205</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -7870,17 +7869,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -7888,22 +7887,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>206</v>
       </c>
@@ -7911,12 +7910,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>208</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>209</v>
       </c>
@@ -7942,19 +7941,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3B0CAE-FAE0-41D3-80DB-28C393865B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -8000,7 +7999,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -8015,7 +8014,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -8030,7 +8029,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -8045,7 +8044,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -8060,7 +8059,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -8075,7 +8074,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -8090,7 +8089,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -8107,7 +8106,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
@@ -8126,7 +8125,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -8141,7 +8140,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>167</v>
       </c>
@@ -8160,7 +8159,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>168</v>
       </c>
@@ -8175,7 +8174,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>217</v>
       </c>
@@ -8192,7 +8191,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>202</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>203</v>
       </c>
@@ -8220,7 +8219,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>204</v>
       </c>
@@ -8235,7 +8234,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>205</v>
       </c>
@@ -8254,7 +8253,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -8271,7 +8270,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -8286,7 +8285,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -8305,7 +8304,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -8322,7 +8321,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -8337,7 +8336,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -8354,7 +8353,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>101</v>
       </c>
@@ -8369,7 +8368,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
@@ -8386,7 +8385,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -8405,7 +8404,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>223</v>
       </c>
@@ -8418,7 +8417,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>224</v>
       </c>
@@ -8435,7 +8434,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>226</v>
       </c>
@@ -8452,7 +8451,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>227</v>
       </c>
@@ -8467,7 +8466,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>228</v>
       </c>
@@ -8482,7 +8481,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>68</v>
       </c>
@@ -8499,7 +8498,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>94</v>
       </c>
@@ -8516,7 +8515,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -8533,7 +8532,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
@@ -8550,7 +8549,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>231</v>
       </c>
@@ -8565,7 +8564,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>206</v>
       </c>
@@ -8580,7 +8579,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>207</v>
       </c>
@@ -8595,7 +8594,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>208</v>
       </c>
@@ -8610,7 +8609,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>209</v>
       </c>
@@ -8627,7 +8626,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>92</v>
       </c>
@@ -8654,19 +8653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37961EDF-2837-44BB-B283-17D6FF9D0574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>460</v>
       </c>
@@ -8710,7 +8709,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>603</v>
       </c>
@@ -8725,7 +8724,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>915</v>
       </c>
@@ -8740,7 +8739,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>916</v>
       </c>
@@ -8753,7 +8752,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>920</v>
       </c>
@@ -8766,7 +8765,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -8779,7 +8778,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -8796,7 +8795,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
@@ -8811,7 +8810,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -8828,7 +8827,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
@@ -8845,7 +8844,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>73</v>
       </c>
@@ -8860,7 +8859,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>82</v>
       </c>
@@ -8875,7 +8874,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>233</v>
       </c>
@@ -8890,7 +8889,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>217</v>
       </c>
@@ -8905,7 +8904,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>234</v>
       </c>
@@ -8918,7 +8917,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>235</v>
       </c>
@@ -8933,7 +8932,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>236</v>
       </c>
@@ -8948,7 +8947,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>237</v>
       </c>
@@ -8961,7 +8960,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>103</v>
       </c>
@@ -8976,7 +8975,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
@@ -8991,7 +8990,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>81</v>
       </c>
@@ -9006,7 +9005,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>83</v>
       </c>
@@ -9021,7 +9020,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
@@ -9036,7 +9035,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>101</v>
       </c>
@@ -9051,7 +9050,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>104</v>
       </c>
@@ -9066,7 +9065,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>224</v>
       </c>
@@ -9081,7 +9080,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>227</v>
       </c>
@@ -9094,7 +9093,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>238</v>
       </c>
@@ -9107,7 +9106,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>239</v>
       </c>
@@ -9122,7 +9121,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>240</v>
       </c>
@@ -9137,7 +9136,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>228</v>
       </c>
@@ -9152,7 +9151,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>68</v>
       </c>
@@ -9167,7 +9166,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>94</v>
       </c>
@@ -9182,7 +9181,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>95</v>
       </c>
@@ -9197,7 +9196,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>97</v>
       </c>
@@ -9210,7 +9209,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>99</v>
       </c>
@@ -9225,7 +9224,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>241</v>
       </c>
@@ -9240,7 +9239,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>69</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>70</v>
       </c>
@@ -9272,7 +9271,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
@@ -9285,7 +9284,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>102</v>
       </c>
@@ -9300,7 +9299,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>92</v>
       </c>
@@ -9325,19 +9324,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B71E36-B1C8-444D-98BA-1C92C1CC881C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
@@ -9381,7 +9380,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
@@ -9394,7 +9393,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
@@ -9409,7 +9408,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -9424,7 +9423,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -9437,7 +9436,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>72</v>
       </c>
@@ -9452,7 +9451,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>73</v>
       </c>
@@ -9469,7 +9468,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -9484,7 +9483,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -9499,7 +9498,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>242</v>
       </c>
@@ -9514,7 +9513,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>243</v>
       </c>
@@ -9529,7 +9528,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>234</v>
       </c>
@@ -9542,7 +9541,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>236</v>
       </c>
@@ -9555,7 +9554,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>237</v>
       </c>
@@ -9568,7 +9567,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>103</v>
       </c>
@@ -9583,7 +9582,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
@@ -9596,7 +9595,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>81</v>
       </c>
@@ -9609,7 +9608,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>83</v>
       </c>
@@ -9622,7 +9621,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -9637,7 +9636,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>104</v>
       </c>
@@ -9650,7 +9649,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>88</v>
       </c>
@@ -9663,7 +9662,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
@@ -9676,7 +9675,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>90</v>
       </c>
@@ -9689,7 +9688,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>95</v>
       </c>
@@ -9704,7 +9703,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>178</v>
       </c>
@@ -9719,7 +9718,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>99</v>
       </c>
@@ -9732,7 +9731,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>244</v>
       </c>
@@ -9745,7 +9744,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>245</v>
       </c>
@@ -9760,7 +9759,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>246</v>
       </c>
@@ -9773,7 +9772,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>102</v>
       </c>
@@ -9798,19 +9797,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420CCD88-B22A-47B4-AD38-BA3A5CDF56C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
@@ -9854,7 +9853,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
@@ -9869,7 +9868,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
@@ -9884,7 +9883,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -9899,7 +9898,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
@@ -9918,7 +9917,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>37</v>
       </c>
@@ -9935,7 +9934,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -9952,7 +9951,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>167</v>
       </c>
@@ -9967,7 +9966,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>168</v>
       </c>
@@ -9982,7 +9981,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>169</v>
       </c>
@@ -9997,7 +9996,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
@@ -10012,7 +10011,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>49</v>
       </c>
@@ -10057,7 +10056,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>50</v>
       </c>
@@ -10072,7 +10071,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>51</v>
       </c>
@@ -10087,7 +10086,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>53</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>17</v>
       </c>
@@ -10119,7 +10118,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>44</v>
       </c>
@@ -10134,7 +10133,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>47</v>
       </c>
@@ -10149,7 +10148,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>48</v>
       </c>
@@ -10166,7 +10165,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>40</v>
       </c>
@@ -10181,7 +10180,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>42</v>
       </c>
@@ -10196,7 +10195,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>43</v>
       </c>
@@ -10211,7 +10210,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>45</v>
       </c>
@@ -10228,7 +10227,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>46</v>
       </c>
@@ -10243,7 +10242,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>18</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>20</v>
       </c>
@@ -10273,7 +10272,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>22</v>
       </c>
@@ -10288,7 +10287,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
@@ -10317,20 +10316,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC9A5B-17C0-4AEB-B201-971474ADE78E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="1" width="23.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
@@ -10374,7 +10373,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
@@ -10389,7 +10388,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
@@ -10404,7 +10403,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>59</v>
       </c>
@@ -10419,7 +10418,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>60</v>
       </c>
@@ -10434,7 +10433,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>61</v>
       </c>
@@ -10449,7 +10448,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>62</v>
       </c>
@@ -10464,7 +10463,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>63</v>
       </c>
@@ -10479,7 +10478,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>65</v>
       </c>
@@ -10494,7 +10493,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>72</v>
       </c>
@@ -10509,7 +10508,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>73</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>82</v>
       </c>
@@ -10539,7 +10538,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>74</v>
       </c>
@@ -10554,7 +10553,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>75</v>
       </c>
@@ -10569,7 +10568,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>77</v>
       </c>
@@ -10584,7 +10583,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>78</v>
       </c>
@@ -10599,7 +10598,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>79</v>
       </c>
@@ -10614,7 +10613,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>80</v>
       </c>
@@ -10629,7 +10628,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>103</v>
       </c>
@@ -10644,7 +10643,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>66</v>
       </c>
@@ -10659,7 +10658,7 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>81</v>
       </c>
@@ -10674,7 +10673,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>83</v>
       </c>
@@ -10689,7 +10688,7 @@
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>84</v>
       </c>
@@ -10704,7 +10703,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>101</v>
       </c>
@@ -10719,7 +10718,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>104</v>
       </c>
@@ -10734,7 +10733,7 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>85</v>
       </c>
@@ -10749,7 +10748,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>87</v>
       </c>
@@ -10764,7 +10763,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>88</v>
       </c>
@@ -10779,7 +10778,7 @@
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>89</v>
       </c>
@@ -10794,7 +10793,7 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>90</v>
       </c>
@@ -10809,7 +10808,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>91</v>
       </c>
@@ -10824,7 +10823,7 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
@@ -10839,7 +10838,7 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>94</v>
       </c>
@@ -10854,7 +10853,7 @@
       <c r="H34" s="21"/>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>95</v>
       </c>
@@ -10869,7 +10868,7 @@
       <c r="H35" s="21"/>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>178</v>
       </c>
@@ -10884,7 +10883,7 @@
       <c r="H36" s="21"/>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>97</v>
       </c>
@@ -10899,7 +10898,7 @@
       <c r="H37" s="21"/>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>99</v>
       </c>
@@ -10914,7 +10913,7 @@
       <c r="H38" s="21"/>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>100</v>
       </c>
@@ -10929,7 +10928,7 @@
       <c r="H39" s="21"/>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>69</v>
       </c>
@@ -10944,7 +10943,7 @@
       <c r="H40" s="21"/>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>70</v>
       </c>
@@ -10959,7 +10958,7 @@
       <c r="H41" s="21"/>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>18</v>
       </c>
@@ -10974,7 +10973,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>102</v>
       </c>
@@ -10989,7 +10988,7 @@
       <c r="H43" s="21"/>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>92</v>
       </c>
@@ -11014,19 +11013,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD13A64-320B-4F5E-8399-9255977243A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
@@ -11118,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>59</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>62</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>63</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -11244,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>66</v>
       </c>
@@ -11265,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>68</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>69</v>
       </c>
@@ -11307,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>74</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>75</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -11475,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -11538,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -11559,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
@@ -11622,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>87</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>88</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>89</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>90</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
@@ -11727,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>92</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
@@ -11769,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>95</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
@@ -11811,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>99</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>101</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>102</v>
       </c>
@@ -11916,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>104</v>
       </c>
@@ -11968,19 +11967,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425A6B25-4860-46D7-AA75-B37517B22FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f t="shared" ref="A2:A31" ca="1" si="0">INDEX(CV1SF,$A2,1)</f>
         <v>365</v>
@@ -12029,7 +12028,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 308</v>
@@ -12049,7 +12048,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 360</v>
@@ -12069,7 +12068,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 362</v>
@@ -12089,7 +12088,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>CEDRO</v>
@@ -12109,7 +12108,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRESNO</v>
@@ -12129,7 +12128,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BASILIO</v>
@@ -12149,7 +12148,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TIMBO</v>
@@ -12169,7 +12168,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>JACARANDA</v>
@@ -12189,7 +12188,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK CUMELEN</v>
@@ -12209,7 +12208,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK DESTELLO</v>
@@ -12229,7 +12228,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PACIFICO</v>
@@ -12249,7 +12248,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PEREGRINO</v>
@@ -12269,7 +12268,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 109</v>
@@ -12289,7 +12288,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 120</v>
@@ -12309,7 +12308,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 200</v>
@@ -12329,7 +12328,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 211</v>
@@ -12349,7 +12348,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALGARROBO</v>
@@ -12369,7 +12368,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MAITEN</v>
@@ -12389,7 +12388,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>PEHUEN</v>
@@ -12409,7 +12408,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAUCE</v>
@@ -12429,7 +12428,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN CIEN AÑOS</v>
@@ -12449,7 +12448,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN GEMINIS</v>
@@ -12469,7 +12468,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LG ARYAL</v>
@@ -12489,7 +12488,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA 119</v>
@@ -12509,7 +12508,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA BONAERENSE 215</v>
@@ -12529,7 +12528,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 620</v>
@@ -12549,7 +12548,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 680</v>
@@ -12569,7 +12568,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 750</v>
@@ -12589,7 +12588,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 820</v>
@@ -12613,19 +12612,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5582BF-1D8C-48B1-930C-436F713E31A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f t="shared" ref="A2:A31" ca="1" si="0">INDEX(CV4SF,$A2,1)</f>
         <v>460</v>
@@ -12674,7 +12673,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>915</v>
@@ -12694,7 +12693,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>916</v>
@@ -12714,7 +12713,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>920</v>
@@ -12734,7 +12733,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 917</v>
@@ -12754,7 +12753,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BIOCERES 1008</v>
@@ -12774,7 +12773,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BIOINTA 1006</v>
@@ -12794,7 +12793,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>GINGKO</v>
@@ -12814,7 +12813,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALAMO</v>
@@ -12834,7 +12833,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK AMANCAY</v>
@@ -12854,7 +12853,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK BRAVIO CL2</v>
@@ -12874,7 +12873,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK FULGOR</v>
@@ -12894,7 +12893,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK MUTISIA</v>
@@ -12914,7 +12913,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK SAETA</v>
@@ -12934,7 +12933,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 330</v>
@@ -12954,7 +12953,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALERCE</v>
@@ -12974,7 +12973,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>CEIBO</v>
@@ -12994,7 +12993,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>IS HORNERO</v>
@@ -13014,7 +13013,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>IS TORDO</v>
@@ -13034,7 +13033,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TBIO AUDAZ</v>
@@ -13054,7 +13053,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN NUTRIA</v>
@@ -13074,7 +13073,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN POTRO</v>
@@ -13094,7 +13093,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN VALOR</v>
@@ -13114,7 +13113,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LG ZAINO</v>
@@ -13134,7 +13133,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LGWA11-0169</v>
@@ -13154,7 +13153,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA 815</v>
@@ -13174,7 +13173,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA BONAERENSE 817</v>
@@ -13194,7 +13193,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 450</v>
@@ -13214,7 +13213,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 550</v>
@@ -13234,7 +13233,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>RGT QUIRIKO</v>
@@ -13258,19 +13257,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742EF97E-6B77-4CE4-95B0-666DFD209C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13299,7 +13298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f t="shared" ref="A2:A33" ca="1" si="0">INDEX(CV3SF,$A2,1)</f>
         <v>460</v>
@@ -13319,7 +13318,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>603</v>
@@ -13339,7 +13338,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>915</v>
@@ -13359,7 +13358,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>916</v>
@@ -13379,7 +13378,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>920</v>
@@ -13399,7 +13398,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 602</v>
@@ -13419,7 +13418,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 604</v>
@@ -13439,7 +13438,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 917</v>
@@ -13461,7 +13460,7 @@
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALAMO</v>
@@ -13481,7 +13480,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BIOCERES 1008</v>
@@ -13501,7 +13500,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BIOINTA 1006</v>
@@ -13521,7 +13520,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>GINGKO</v>
@@ -13541,7 +13540,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK BRAVIO CL2</v>
@@ -13561,7 +13560,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK COLIHUE</v>
@@ -13581,7 +13580,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK FULGOR</v>
@@ -13601,7 +13600,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK METEORO</v>
@@ -13623,7 +13622,7 @@
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK MUTISIA</v>
@@ -13643,7 +13642,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK SAETA</v>
@@ -13663,7 +13662,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 330</v>
@@ -13683,7 +13682,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALERCE</v>
@@ -13703,7 +13702,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>CEIBO</v>
@@ -13723,7 +13722,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>IS HORNERO</v>
@@ -13743,7 +13742,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>IS TORDO</v>
@@ -13765,7 +13764,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ã‘ANDUBAY</v>
@@ -13787,7 +13786,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TBIO AUDAZ</v>
@@ -13807,7 +13806,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN FAVORITO II</v>
@@ -13827,7 +13826,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN LIEBRE</v>
@@ -13847,7 +13846,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN NUTRIA</v>
@@ -13867,7 +13866,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN POTRO</v>
@@ -13887,7 +13886,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN VALOR</v>
@@ -13909,7 +13908,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEINPROMETEO</v>
@@ -13929,7 +13928,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALHAMBRA</v>
@@ -13949,7 +13948,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f t="shared" ref="A34:A44" ca="1" si="1">INDEX(CV3SF,$A34,1)</f>
         <v>LG ARLASK</v>
@@ -13969,7 +13968,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>LG ZAINO</v>
@@ -13989,7 +13988,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>LGWA11-0169</v>
@@ -14009,7 +14008,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA 415</v>
@@ -14029,7 +14028,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA 815</v>
@@ -14049,7 +14048,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA BONAERENSE 817</v>
@@ -14071,7 +14070,7 @@
       </c>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 450</v>
@@ -14093,7 +14092,7 @@
       </c>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 550</v>
@@ -14115,7 +14114,7 @@
       </c>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 620</v>
@@ -14135,7 +14134,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>RGT QUIRIKO</v>
@@ -14155,7 +14154,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>LAPACHO</v>
@@ -14187,19 +14186,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D4B400-08B7-48D2-A92F-CB70DFAD16F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f t="shared" ref="A2:A33" ca="1" si="0">INDEX(CV2SF,$A2,1)</f>
         <v>365</v>
@@ -14248,7 +14247,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>603</v>
@@ -14268,7 +14267,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 308</v>
@@ -14288,7 +14287,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 360</v>
@@ -14308,7 +14307,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 362</v>
@@ -14328,7 +14327,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 602</v>
@@ -14348,7 +14347,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 604</v>
@@ -14368,7 +14367,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>CEDRO</v>
@@ -14388,7 +14387,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRESNO</v>
@@ -14408,7 +14407,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BASILIO</v>
@@ -14430,7 +14429,7 @@
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TIMBO</v>
@@ -14450,7 +14449,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>JACARANDA</v>
@@ -14472,7 +14471,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK COLIHUE</v>
@@ -14492,7 +14491,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK CUMELEN</v>
@@ -14512,7 +14511,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK DESTELLO</v>
@@ -14532,7 +14531,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PACIFICO</v>
@@ -14552,7 +14551,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PEREGRINO</v>
@@ -14574,7 +14573,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 109</v>
@@ -14594,7 +14593,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 120</v>
@@ -14614,7 +14613,7 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 200</v>
@@ -14634,7 +14633,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 211</v>
@@ -14654,7 +14653,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALGARROBO</v>
@@ -14674,7 +14673,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MAITEN</v>
@@ -14694,7 +14693,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Ã‘ANDUBAY</v>
@@ -14714,7 +14713,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>PEHUEN</v>
@@ -14736,7 +14735,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAUCE</v>
@@ -14756,7 +14755,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN CIEN AÑOS</v>
@@ -14776,7 +14775,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN FAVORITO II</v>
@@ -14798,7 +14797,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN GEMINIS</v>
@@ -14818,7 +14817,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN LIEBRE</v>
@@ -14838,7 +14837,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEINPROMETEO</v>
@@ -14858,7 +14857,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALHAMBRA</v>
@@ -14878,7 +14877,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f t="shared" ref="A34:A42" ca="1" si="1">INDEX(CV2SF,$A34,1)</f>
         <v>LG ARLASK</v>
@@ -14898,7 +14897,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA 119</v>
@@ -14918,7 +14917,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA 415</v>
@@ -14938,7 +14937,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>MS INTA BONAERENSE 215</v>
@@ -14958,7 +14957,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 620</v>
@@ -14978,7 +14977,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 680</v>
@@ -14998,7 +14997,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 750</v>
@@ -15018,7 +15017,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>BAGUETTE 820</v>
@@ -15038,7 +15037,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>LAPACHO</v>
@@ -15068,19 +15067,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BF220-9208-49F0-8D6C-D1F9CA00B385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -15109,7 +15108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="str">
         <f t="shared" ref="A2:A31" ca="1" si="0">INDEX(CV1SF,$A2,1)</f>
         <v>365</v>
@@ -15133,7 +15132,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 308</v>
@@ -15157,7 +15156,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 360</v>
@@ -15181,7 +15180,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ACA 362</v>
@@ -15205,7 +15204,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>CEDRO</v>
@@ -15229,7 +15228,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRESNO</v>
@@ -15255,7 +15254,7 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BASILIO</v>
@@ -15281,7 +15280,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>TIMBO</v>
@@ -15305,7 +15304,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>JACARANDA</v>
@@ -15331,7 +15330,7 @@
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK CUMELEN</v>
@@ -15357,7 +15356,7 @@
       </c>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK DESTELLO</v>
@@ -15383,7 +15382,7 @@
       </c>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PACIFICO</v>
@@ -15407,7 +15406,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BUCK PEREGRINO</v>
@@ -15431,7 +15430,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 109</v>
@@ -15455,7 +15454,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 120</v>
@@ -15479,7 +15478,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 200</v>
@@ -15503,7 +15502,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SY 211</v>
@@ -15527,7 +15526,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>ALGARROBO</v>
@@ -15551,7 +15550,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MAITEN</v>
@@ -15575,7 +15574,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>PEHUEN</v>
@@ -15601,7 +15600,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SAUCE</v>
@@ -15625,7 +15624,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN CIEN AÑOS</v>
@@ -15649,7 +15648,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>KLEIN GEMINIS</v>
@@ -15673,7 +15672,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>LG ARYAL</v>
@@ -15699,7 +15698,7 @@
       </c>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA 119</v>
@@ -15723,7 +15722,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>MS INTA BONAERENSE 215</v>
@@ -15747,7 +15746,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 620</v>
@@ -15771,7 +15770,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 680</v>
@@ -15797,7 +15796,7 @@
       </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 750</v>
@@ -15821,7 +15820,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>BAGUETTE 820</v>
@@ -15857,19 +15856,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B385ED-1779-4B32-B6C4-F4B5DC562209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15898,7 +15897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -16027,7 +16026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -16067,7 +16066,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>167</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>168</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -16167,7 +16166,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>169</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -16207,7 +16206,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -16227,7 +16226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -16370,7 +16369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -16433,7 +16432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -16456,7 +16455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>85</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -16522,7 +16521,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -16582,7 +16581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
@@ -16602,7 +16601,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>97</v>
       </c>
@@ -16622,7 +16621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>18</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
@@ -16705,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>26</v>
       </c>
@@ -16725,7 +16724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>92</v>
       </c>
@@ -16748,22 +16747,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -16778,19 +16777,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074DC830-3084-401A-AA40-CBF5EA773067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
@@ -16839,7 +16838,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -16922,7 +16921,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
@@ -16942,7 +16941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -16962,7 +16961,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -17002,7 +17001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -17022,7 +17021,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -17042,7 +17041,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
@@ -17062,7 +17061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -17082,7 +17081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -17102,7 +17101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -17122,7 +17121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -17165,7 +17164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>103</v>
       </c>
@@ -17205,7 +17204,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -17225,7 +17224,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -17245,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
@@ -17265,7 +17264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -17285,7 +17284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>101</v>
       </c>
@@ -17305,7 +17304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
@@ -17325,7 +17324,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>85</v>
       </c>
@@ -17345,7 +17344,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -17365,7 +17364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -17385,7 +17384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>89</v>
       </c>
@@ -17405,7 +17404,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -17425,7 +17424,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
@@ -17445,7 +17444,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
@@ -17485,7 +17484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>95</v>
       </c>
@@ -17505,7 +17504,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>178</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
@@ -17545,7 +17544,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>99</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>100</v>
       </c>
@@ -17585,7 +17584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>70</v>
       </c>
@@ -17625,7 +17624,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>18</v>
       </c>
@@ -17645,7 +17644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>102</v>
       </c>
@@ -17668,7 +17667,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
